--- a/Suivie Beton.xlsx
+++ b/Suivie Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50CD59-8DF8-477A-B43D-CF9036C370DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314CC30-EBB4-4686-BB97-D499C8C9CC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>M³ le jour</t>
+  </si>
+  <si>
+    <t>nimpo</t>
+  </si>
+  <si>
+    <t>Test REPO</t>
+  </si>
+  <si>
+    <t>DEDEDEDE</t>
   </si>
 </sst>
 </file>
@@ -235,25 +244,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -273,6 +276,12 @@
     <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,7 +297,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:H32" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:H32" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B7:H31" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -299,13 +308,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="countNums" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="14" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="12" totalsRowDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="countNums" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -577,7 +586,7 @@
   <dimension ref="B4:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +976,18 @@
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2">
+        <v>555</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
@@ -979,7 +999,7 @@
       </c>
       <c r="G32" s="2">
         <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
-        <v>505</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">

--- a/Suivie Beton.xlsx
+++ b/Suivie Beton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314CC30-EBB4-4686-BB97-D499C8C9CC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272812C8-9506-49DB-8FB5-FDF1218F6241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -140,13 +140,67 @@
     <t>M³ le jour</t>
   </si>
   <si>
-    <t>nimpo</t>
-  </si>
-  <si>
-    <t>Test REPO</t>
-  </si>
-  <si>
-    <t>DEDEDEDE</t>
+    <t>Q journée</t>
+  </si>
+  <si>
+    <t>dalle RDC</t>
+  </si>
+  <si>
+    <t>Villa 1, Villa 2 ,Villa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalier </t>
+  </si>
+  <si>
+    <t>Bache a Eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa </t>
+  </si>
+  <si>
+    <t>Dalle Flotante</t>
+  </si>
+  <si>
+    <t>Villa 5 ,Villa 6, Villa 7, Villa 8</t>
+  </si>
+  <si>
+    <t>Voile peripherique</t>
+  </si>
+  <si>
+    <t>Villa 7,,,,,</t>
+  </si>
+  <si>
+    <t>Villa 3</t>
+  </si>
+  <si>
+    <t>Dalle flottante</t>
+  </si>
+  <si>
+    <t>dalle folttante</t>
+  </si>
+  <si>
+    <t>Poteaux / Voiles</t>
+  </si>
+  <si>
+    <t>Villa8</t>
+  </si>
+  <si>
+    <t>Villa 7</t>
+  </si>
+  <si>
+    <t>Villa 6</t>
+  </si>
+  <si>
+    <t>Dalle flotante (finition bache d'eau</t>
+  </si>
+  <si>
+    <t>Villa 5</t>
+  </si>
+  <si>
+    <t>Villa 4</t>
+  </si>
+  <si>
+    <t>Dalle flottante ( suite bache d'eau)</t>
   </si>
 </sst>
 </file>
@@ -209,15 +263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,11 +280,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -256,26 +319,33 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -297,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:H32" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B7:H31" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I62" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B7:I61" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -306,15 +376,17 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="countNums" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="7" totalsRowDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -583,23 +655,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:O40"/>
+  <dimension ref="B4:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="6" max="6" width="31.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -608,14 +681,13 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:15" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -634,14 +706,17 @@
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>44735</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -653,15 +728,17 @@
       <c r="E8" s="2">
         <v>200</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>44735</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -673,15 +750,17 @@
       <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>44739</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -693,45 +772,47 @@
       <c r="E12" s="2">
         <v>200</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="H12" s="5"/>
+      <c r="L12" s="3">
         <v>44734</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="4">
         <v>200</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="K13" s="4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="L13" s="3">
         <v>44735</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="4">
         <v>200</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>44740</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -743,45 +824,47 @@
       <c r="E14" s="2">
         <v>200</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4">
+      <c r="H14" s="5"/>
+      <c r="L14" s="3">
         <v>44739</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="4">
         <v>200</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="K15" s="4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="L15" s="3">
         <v>44740</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="M15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
         <v>200</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>44758</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -793,18 +876,22 @@
       <c r="E16" s="2">
         <v>200</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="2">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="H16" s="5">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>44761</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -816,21 +903,25 @@
       <c r="E18" s="2">
         <v>350</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2">
         <v>134</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5">
+        <v>134</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>44765</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -842,21 +933,25 @@
       <c r="E20" s="2">
         <v>350</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="2">
         <v>88</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5">
+        <v>88</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>44768</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -868,22 +963,26 @@
       <c r="E22" s="2">
         <v>350</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2">
         <v>143</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5">
+        <v>143</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>44773</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -895,23 +994,27 @@
       <c r="E24" s="2">
         <v>400</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="2">
         <v>42.5</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>44775</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -923,104 +1026,567 @@
       <c r="E26" s="2">
         <v>350</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
         <v>350</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="2">
         <v>25</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
         <v>350</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="J28" s="6"/>
+      <c r="M28" s="2">
+        <f>3.1*2.78</f>
+        <v>8.6180000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="M29" s="2">
+        <f>2.2*2.78</f>
+        <v>6.1159999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>44779</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>350</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="H30" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="M30" s="2">
+        <f>0.9*2.78</f>
+        <v>2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>44783</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>350</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5">
+        <v>56</v>
+      </c>
+      <c r="H32" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>44786</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>350</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="H34" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>44790</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>350</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="5">
+        <v>60</v>
+      </c>
+      <c r="H36" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>44795</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>350</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>70</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="E39" s="5">
+        <v>350</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="E40" s="5">
+        <v>350</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="E41" s="5">
+        <v>350</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="E42" s="5">
+        <v>350</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="E43" s="5">
+        <v>350</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="E44" s="5">
+        <v>350</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="E45" s="5">
+        <v>350</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>44797</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5">
+        <v>350</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="5">
+        <v>70</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
+        <v>350</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5">
+        <v>350</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5">
+        <v>350</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>44804</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>350</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="2">
-        <v>555</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G52" s="5">
+        <v>74</v>
+      </c>
+      <c r="H52" s="5">
+        <v>146</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <f>SUBTOTAL(102,Tableau1[Date])</f>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
+        <v>350</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5">
+        <v>350</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="5">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5">
+        <v>300</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="5">
+        <v>60</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>44814</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="5">
+        <v>300</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="5">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="9">
+        <f>SUBTOTAL(103,Tableau1[Date])</f>
+        <v>18</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
         <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="2">
+        <v>919</v>
+      </c>
+      <c r="H62" s="5">
+        <f>SUBTOTAL(109,Tableau1[Q journée])</f>
+        <v>1019</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="2">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="J26:J28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E31 N12:N15" xr:uid="{A3857ED9-0466-4DDA-A63C-BB70F7F76C8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O15 E61:E62 E8:E60" xr:uid="{A3857ED9-0466-4DDA-A63C-BB70F7F76C8E}">
       <formula1>Dosage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D31 M12:M15" xr:uid="{0A2170C6-646E-4B6B-AC61-33A951D098A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N15 D61:D62 D8:D60" xr:uid="{0A2170C6-646E-4B6B-AC61-33A951D098A2}">
       <formula1>Type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C31 L12:L15" xr:uid="{2EA115A5-1001-4A9B-8E0E-2B45FF8E909A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M15 C61:C62 C8:C60" xr:uid="{2EA115A5-1001-4A9B-8E0E-2B45FF8E909A}">
       <formula1>Provenance</formula1>
     </dataValidation>
   </dataValidations>

--- a/Suivie Beton.xlsx
+++ b/Suivie Beton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272812C8-9506-49DB-8FB5-FDF1218F6241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37BDE7-E727-4B0F-8DE2-37A5239509AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Poteaux / Voiles</t>
   </si>
   <si>
-    <t>Villa8</t>
-  </si>
-  <si>
     <t>Villa 7</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Dalle flottante ( suite bache d'eau)</t>
+  </si>
+  <si>
+    <t>Villa 8</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,6 +292,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +302,9 @@
   <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -310,30 +316,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -345,7 +337,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -367,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I62" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B7:I61" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I68" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B7:I67" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -379,14 +382,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:P63"/>
+  <dimension ref="B4:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +982,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="H23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
@@ -1006,12 +1009,12 @@
       <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="H25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
@@ -1038,7 +1041,7 @@
       <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
@@ -1057,7 +1060,7 @@
       <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
@@ -1076,7 +1079,7 @@
       <c r="I28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="10"/>
       <c r="M28" s="2">
         <f>3.1*2.78</f>
         <v>8.6180000000000003</v>
@@ -1224,7 +1227,7 @@
         <v>70</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1281,7 @@
         <v>43</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1293,7 @@
         <v>43</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1302,7 +1305,7 @@
         <v>43</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1311,10 +1314,10 @@
         <v>350</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -1398,7 +1401,7 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1511,7 +1514,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="5">
         <v>5</v>
@@ -1520,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1528,48 +1531,169 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
+      <c r="B59" s="7">
+        <v>44826</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2">
+        <v>350</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H59" s="5"/>
+      <c r="I59" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="1"/>
+      <c r="C60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5">
+        <v>350</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5">
+        <v>350</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="9">
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>350</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6">
+        <v>350</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="6">
+        <v>350</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="9">
         <f>SUBTOTAL(103,Tableau1[Date])</f>
-        <v>18</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5">
+        <v>19</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6">
         <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
         <v>919</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H68" s="6">
         <f>SUBTOTAL(109,Tableau1[Q journée])</f>
         <v>1019</v>
       </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I63" s="2">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1580,13 +1704,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O15 E61:E62 E8:E60" xr:uid="{A3857ED9-0466-4DDA-A63C-BB70F7F76C8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O15 E8:E61" xr:uid="{A3857ED9-0466-4DDA-A63C-BB70F7F76C8E}">
       <formula1>Dosage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N15 D61:D62 D8:D60" xr:uid="{0A2170C6-646E-4B6B-AC61-33A951D098A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N15 D8:D61" xr:uid="{0A2170C6-646E-4B6B-AC61-33A951D098A2}">
       <formula1>Type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M15 C61:C62 C8:C60" xr:uid="{2EA115A5-1001-4A9B-8E0E-2B45FF8E909A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M15 C8:C61" xr:uid="{2EA115A5-1001-4A9B-8E0E-2B45FF8E909A}">
       <formula1>Provenance</formula1>
     </dataValidation>
   </dataValidations>
@@ -1602,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B420D2-5222-4C35-AA8E-183005FBF279}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Suivie Beton.xlsx
+++ b/Suivie Beton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37BDE7-E727-4B0F-8DE2-37A5239509AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCC83FA-0BF7-4E71-8BDF-C466A59CA7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Provenance">Feuil2!$C$7:$C$8</definedName>
     <definedName name="Type">Feuil2!$D$7:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>Suivie beton</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>Villa 8</t>
+  </si>
+  <si>
+    <t>Poteaux/Voiles</t>
+  </si>
+  <si>
+    <t>Villa 1,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>Villa 4,5,6 et Restant du 1,2,3</t>
+  </si>
+  <si>
+    <t>Villa 1,2,3</t>
+  </si>
+  <si>
+    <t>Villa 8,7,6</t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,6 +310,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,9 +320,6 @@
   <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -316,15 +331,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -337,14 +353,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -370,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I68" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B7:I67" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14D2828F-5326-4C2E-9353-6E4C5BC5087E}" name="Tableau1" displayName="Tableau1" ref="B7:I70" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B7:I69" xr:uid="{43488F0C-BC15-4E55-8685-8AEC2271D03B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -382,14 +400,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6229958B-914C-4129-9072-855C6B78B780}" name="Date" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{16D7AA6A-FD58-475B-AC7F-711A4D61A982}" name="Provenance" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D3662E16-1097-4E50-B1E0-C0E6D7FFF0F7}" name="Type" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BF2FCF6D-BA6F-4249-B3EC-428DA81E13D7}" name="Dosage" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3B7C0FFC-55D2-40BE-97D7-8754C379EEC2}" name="Element coulé" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5FB517CB-B1F9-49A8-A9E2-F54DC079ECCE}" name="Quantité d'element M³" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{41221DA7-8FF2-4F55-B700-777FB37E810B}" name="Q journée" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C6870F4-FEFA-4EE6-83AB-1535170A1AE4}" name="Note:" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -658,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:P69"/>
+  <dimension ref="B4:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1000,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="H23" s="5"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
@@ -1009,12 +1027,12 @@
       <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="H25" s="5"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
@@ -1041,7 +1059,7 @@
       <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
@@ -1060,7 +1078,7 @@
       <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
@@ -1079,7 +1097,7 @@
       <c r="I28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="M28" s="2">
         <f>3.1*2.78</f>
         <v>8.6180000000000003</v>
@@ -1268,6 +1286,9 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G41" s="5">
+        <v>20</v>
+      </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
       </c>
@@ -1280,54 +1301,78 @@
       <c r="F42" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G42" s="5">
+        <v>20</v>
+      </c>
       <c r="I42" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="E43" s="5">
         <v>350</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="E44" s="5">
-        <v>350</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>44797</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E45" s="5">
         <v>350</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="G45" s="5">
+        <v>20</v>
+      </c>
+      <c r="H45" s="5">
+        <v>70</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="F46" s="1"/>
+      <c r="C46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>350</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
-        <v>44797</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
@@ -1340,145 +1385,137 @@
       <c r="F47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="5">
-        <v>70</v>
+      <c r="G47" s="5">
+        <v>20</v>
       </c>
       <c r="I47" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5">
+        <v>350</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>44804</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>350</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="5">
+        <v>74</v>
+      </c>
+      <c r="H50" s="5">
+        <v>146</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5">
+        <v>350</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="5">
-        <v>350</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="5">
-        <v>350</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="5">
-        <v>350</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E52" s="5">
+        <v>350</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G52" s="5">
         <v>10</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
-        <v>44804</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="5">
-        <v>350</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="5">
-        <v>74</v>
-      </c>
-      <c r="H52" s="5">
-        <v>146</v>
-      </c>
+      <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="5">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G53" s="5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="5">
-        <v>350</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="5">
-        <v>10</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>44814</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
@@ -1486,72 +1523,95 @@
         <v>300</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G55" s="5">
-        <v>60</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5</v>
+      </c>
       <c r="I55" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
-        <v>44814</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="5">
-        <v>300</v>
+        <v>44851</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>350</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="5">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="G57" s="2">
+        <v>22.5</v>
       </c>
       <c r="H57" s="5">
-        <v>5</v>
-      </c>
-      <c r="I57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="10">
+        <v>350</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
-        <v>44826</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2">
+    <row r="59" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="10">
         <v>350</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="10">
+        <f>SUM(G57:G63)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
         <v>5</v>
       </c>
@@ -1564,13 +1624,15 @@
       <c r="F60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="10">
+        <v>22.5</v>
+      </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
@@ -1583,13 +1645,19 @@
       <c r="F61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="5"/>
+      <c r="G61" s="10">
+        <v>22.5</v>
+      </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="2">
+        <f>6*2.5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
         <v>5</v>
       </c>
@@ -1602,98 +1670,139 @@
       <c r="F62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6">
+        <v>20</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="10">
         <v>350</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="6">
-        <v>350</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G63" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>44859</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6">
+        <v>350</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="6">
+        <v>25</v>
+      </c>
+      <c r="H65" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="C66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="10">
+        <v>350</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="10">
+        <v>15</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="9">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="9">
         <f>SUBTOTAL(103,Tableau1[Date])</f>
-        <v>19</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6">
+        <v>20</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10">
         <f>SUBTOTAL(109,Tableau1[Quantité d''element M³])</f>
-        <v>919</v>
-      </c>
-      <c r="H68" s="6">
+        <v>1194</v>
+      </c>
+      <c r="H70" s="10">
         <f>SUBTOTAL(109,Tableau1[Q journée])</f>
-        <v>1019</v>
-      </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2">
+        <v>1194</v>
+      </c>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1726,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B420D2-5222-4C35-AA8E-183005FBF279}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
